--- a/ALGOS/LinearRegression.xlsx
+++ b/ALGOS/LinearRegression.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ML-Study\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ML-Study\Notes\ALGOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD959E9-DB56-467F-B50D-5C7E2C427249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FA44A5-C2D6-42E2-AAA9-D4E465268BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NumpyImplementaion" sheetId="1" r:id="rId1"/>
+    <sheet name="PyTorchImpl" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="112">
   <si>
     <r>
       <t>import</t>
@@ -5046,6 +5047,2939 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t>plt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>show</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t># 1) Design model (input, output, forward pass with different layers)</t>
+  </si>
+  <si>
+    <t># 2) Construct loss and optimizer</t>
+  </si>
+  <si>
+    <t># 3) Training loop</t>
+  </si>
+  <si>
+    <t>#       - Forward = compute prediction and loss</t>
+  </si>
+  <si>
+    <t>#       - Backward = compute gradients</t>
+  </si>
+  <si>
+    <t>#       - Update weightsimport torch</t>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>torch</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>torch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>nn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>nn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sklearn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>datasets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>matplotlib</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pyplot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>plt</t>
+    </r>
+  </si>
+  <si>
+    <t>#prepare data</t>
+  </si>
+  <si>
+    <r>
+      <t>x_numpy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y_numpy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>datasets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>make_regression</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n_samples</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n_features</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>noise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>random_state</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>#cast to float tensor</t>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>torch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from_numpy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_numpy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>astype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>np</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>torch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from_numpy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y_numpy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>astype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>np</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>view</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>shape</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>n_samples</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n_features</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>shape</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>input_size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n_features</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>output_size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n_features</t>
+    </r>
+  </si>
+  <si>
+    <t>#model implementation</t>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LinearRegression</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>nn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Module</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>__init__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input_dim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>output_dim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LinearRegression</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>__init__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>lin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>nn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Linear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input_dim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>output_dim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>forward</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>lin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t># we can call this model with samples X</t>
+  </si>
+  <si>
+    <r>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LinearRegression</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input_size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>output_size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t># 2) Define loss and optimizer</t>
+  </si>
+  <si>
+    <r>
+      <t>learning_rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.01</t>
+    </r>
+  </si>
+  <si>
+    <t># callable function</t>
+  </si>
+  <si>
+    <r>
+      <t>criterion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>nn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MSELoss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t>#optimizer</t>
+  </si>
+  <si>
+    <r>
+      <t>optimizer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>torch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>optim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>SGD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>parameters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>lr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>learning_rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">#Training </t>
+  </si>
+  <si>
+    <r>
+      <t>n_iterate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>200</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>epoch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n_iterate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># predict = forward pass with our model</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y_predict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>#loss</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>criterion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y_predict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>#calculate gradient</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.backward()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>#update the weight</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>optimizer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>step</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># zero the gradients after updating</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>optimizer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>zero_grad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>epoch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>parameters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># unpack parameters</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'epoch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>epoch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: w = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:.3f}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, loss = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.item()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:.8f}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>     </t>
+  </si>
+  <si>
+    <t># Plot</t>
+  </si>
+  <si>
+    <r>
+      <t>predicted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>).detach().numpy()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>plt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>plot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_numpy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y_numpy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'go'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>plt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>plot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_numpy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>predicted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'b'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>plt</t>
     </r>
     <r>
@@ -5081,7 +8015,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5155,8 +8089,14 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF44747"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5172,6 +8112,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5225,7 +8177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5252,6 +8204,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5805,8 +8790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6155,4 +9140,395 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69176F6F-0561-4595-A38C-7C18B1EBB65B}">
+  <dimension ref="B1:B82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78:B82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="101.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="12"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="12"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="12"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="12"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="12"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="12"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="12"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="12"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="12"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="12"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="16"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="12"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="12"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="18"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ALGOS/LinearRegression.xlsx
+++ b/ALGOS/LinearRegression.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ML-Study\Notes\ALGOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FA44A5-C2D6-42E2-AAA9-D4E465268BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4738C589-945B-4B4A-A901-701F7294CA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="847" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NumpyImplementaion" sheetId="1" r:id="rId1"/>
     <sheet name="PyTorchImpl" sheetId="2" r:id="rId2"/>
+    <sheet name="TensorFlow-singleFeature" sheetId="3" r:id="rId3"/>
+    <sheet name="TensorFlow-multiFeature" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="220">
   <si>
     <r>
       <t>import</t>
@@ -8008,6 +8010,6583 @@
         <family val="3"/>
       </rPr>
       <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t># Basic regression to predict fuel efficiency</t>
+  </si>
+  <si>
+    <t># Code is based on this tutorial: https://www.tensorflow.org/tutorials/keras/regression</t>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>os</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>os</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>environ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'TF_CPP_MIN_LOG_LEVEL'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'2'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>os</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>environ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"KMP_DUPLICATE_LIB_OK"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"TRUE"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pandas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># pip install pandas</t>
+    </r>
+  </si>
+  <si>
+    <t># Make numpy printouts easier to read.</t>
+  </si>
+  <si>
+    <r>
+      <t>np</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>set_printoptions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>precision</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>suppress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tensorflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tf</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tensorflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>keras</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tensorflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.keras </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> layers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tensorflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.keras.layers.experimental </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> preprocessing</t>
+    </r>
+  </si>
+  <si>
+    <t># https://archive.ics.uci.edu/ml/datasets/Auto+MPG</t>
+  </si>
+  <si>
+    <r>
+      <t>url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'http://archive.ics.uci.edu/ml/machine-learning-databases/auto-mpg/auto-mpg.data'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>column_names</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'MPG'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Cylinders'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Displacement'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Horsepower'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Weight'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Acceleration'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Model Year'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Origin'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>dataset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>read_csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>names</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>column_names</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>na_values</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'?'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD7BA7D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sep</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>' '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>skipinitialspace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t># dataset.tail()</t>
+  </si>
+  <si>
+    <t># clean data</t>
+  </si>
+  <si>
+    <r>
+      <t>dataset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>dropna</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t># convert categorical 'Origin' data into one-hot data</t>
+  </si>
+  <si>
+    <r>
+      <t>origin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Origin'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>dataset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'USA'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>origin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>dataset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Europe'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>origin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>dataset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Japan'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>origin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t># Split the data into train and test</t>
+  </si>
+  <si>
+    <r>
+      <t>train_dataset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sample</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>frac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>random_state</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>test_dataset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>drop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>train_dataset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>shape</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>train_dataset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>shape</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>test_dataset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>shape</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>train_dataset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>describe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>().</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>transpose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t># split features from labels</t>
+  </si>
+  <si>
+    <r>
+      <t>train_features</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>train_dataset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>copy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>test_features</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>test_dataset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>copy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>train_labels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>train_features</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'MPG'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>test_labels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>test_features</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'MPG'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>plot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>feature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>None</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>None</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>plt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>figure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>figsize</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>plt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>scatter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>train_features</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>feature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">], </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>train_labels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>label</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Data'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>None</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>None</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>plt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>plot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'k'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>label</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Predictions'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>plt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>xlabel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>feature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>plt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ylabel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'MPG'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>plt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>legend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>plot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Horsepower'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>plot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Weight'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t># Normalize</t>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>train_dataset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>describe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>().</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>transpose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()[[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'mean'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'std'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]])</t>
+    </r>
+  </si>
+  <si>
+    <t># Normalization</t>
+  </si>
+  <si>
+    <r>
+      <t>normalizer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> preprocessing.Normalization()</t>
+    </r>
+  </si>
+  <si>
+    <t># adapt to the data</t>
+  </si>
+  <si>
+    <r>
+      <t>normalizer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.adapt(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>np</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>train_features</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>normalizer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.mean.numpy())</t>
+    </r>
+  </si>
+  <si>
+    <t># When the layer is called it returns the input data, with each feature independently normalized:</t>
+  </si>
+  <si>
+    <t># (input-mean)/stddev</t>
+  </si>
+  <si>
+    <r>
+      <t>first</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>np</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>train_features</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'First example:'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>first</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Normalized:'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>normalizer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>first</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>).numpy())</t>
+    </r>
+  </si>
+  <si>
+    <t># Regression</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># 1. Normalize the input horsepower</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># 2. Apply a linear transformation (y = m*x+b) to produce 1 output using layers.Dense</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>feature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Horsepower'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>single_feature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>np</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>train_features</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>filter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>feature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>single_feature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>shape</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>train_features</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>shape</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>single_feature_normalizer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> preprocessing.Normalization()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>single_feature_normalizer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.adapt(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>single_feature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t># Sequential model</t>
+  </si>
+  <si>
+    <r>
+      <t>single_feature_model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>keras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>models</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Sequential</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>([</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    layers.Input(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>shape</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,)),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>single_feature_normalizer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    layers.Dense(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>units</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Linear Model</t>
+    </r>
+  </si>
+  <si>
+    <t>])</t>
+  </si>
+  <si>
+    <r>
+      <t>single_feature_model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>summary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t># loss and optimizer</t>
+  </si>
+  <si>
+    <r>
+      <t>loss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>keras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>losses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MeanAbsoluteError</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># MeanSquaredError</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>optim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>keras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>optimizers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Adam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>lr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>single_feature_model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>compile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>optimizer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>optim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>loss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>loss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>history</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>single_feature_model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>train_features</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>feature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">], </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>train_labels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>epochs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>verbose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Calculate validation results on 20% of the training data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>validation_split</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>plot_loss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>history</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>plt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>plot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>history</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.history[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'loss'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">], </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>label</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'loss'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>plt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>plot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>history</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.history[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'val_loss'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">], </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>label</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'val_loss'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>plt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ylim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>plt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>xlabel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Epoch'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>plt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ylabel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Error [MPG]'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>plt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>grid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>plot_loss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>history</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>single_feature_model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>evaluate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>test_features</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>feature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>test_labels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>verbose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t># predict and plot</t>
+  </si>
+  <si>
+    <r>
+      <t>range_min</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>np</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>min</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>test_features</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>feature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">]) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>range_max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>np</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>test_features</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>feature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">]) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>linspace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>range_min</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>range_max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>single_feature_model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>predict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>plot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>feature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>linear_model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>keras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>models</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Sequential</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>([</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>normalizer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>linear_model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>summary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>linear_model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>compile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>optimizer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>optim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>loss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>loss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>history</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>linear_model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>train_features</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>train_labels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>linear_model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>evaluate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>test_features</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
     </r>
   </si>
 </sst>
@@ -8015,7 +14594,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8095,8 +14674,14 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD7BA7D"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8124,6 +14709,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8177,7 +14768,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -8237,6 +14828,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8514,6 +15135,143 @@
         <a:xfrm>
           <a:off x="7829550" y="9848850"/>
           <a:ext cx="4923809" cy="2523809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5505450</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>112106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>208888</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>37587</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3AE5363-4483-2E31-FD5D-845232124FD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6115050" y="9637106"/>
+          <a:ext cx="3352138" cy="2592481"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5063293</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>51361</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77F42E82-C230-627B-FA82-B8895E6D2E93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5672893" y="21850351"/>
+          <a:ext cx="3375857" cy="2585010"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1647824</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>152044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5542847</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>161474</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64388279-7EBA-6991-C9D3-85EC9B492BBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2257424" y="26250544"/>
+          <a:ext cx="3895023" cy="2495455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9146,8 +15904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69176F6F-0561-4595-A38C-7C18B1EBB65B}">
   <dimension ref="B1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78:B82"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9531,4 +16289,1135 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41EA889-10B4-4C34-B450-02867B175638}">
+  <dimension ref="B1:B139"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="111.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="12"/>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="12"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="12"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="12"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="12"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="12"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="12"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="12"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="12"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="12"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="12"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="12"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="12"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="12"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="12"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="12"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="12"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="18"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="18"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="12"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="12"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="12"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="12"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="12"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="12"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="12"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="12"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5115D60-29C0-47D4-A795-2F0306CB7E36}">
+  <dimension ref="B1:B102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="111.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="12"/>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="12"/>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="12"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="12"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="12"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="12"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="12"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="12"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="12"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="12"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="12"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="12"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="12"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="12"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="12"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="12"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="12"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="12"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="12"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="30" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="30" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="12"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="12"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>